--- a/GoDaddy/GoDaddy testcases.xlsx
+++ b/GoDaddy/GoDaddy testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naman\Desktop\GoDaddy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naman\Desktop\GoDaddy\GoDaddy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB7F4285-A050-49E7-9C4E-338373C14AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E165FB-BBBB-4BF8-8B16-E73551A36A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB0F7F99-BFEE-49FB-8A6B-32CE61D71F4C}"/>
   </bookViews>
@@ -366,19 +366,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -387,14 +383,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,24 +422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,7 +744,7 @@
   <dimension ref="C2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,7 +764,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -776,7 +775,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -787,7 +786,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -798,7 +797,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -809,18 +808,18 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8">
-        <v>45003</v>
+      <c r="D6" s="6">
+        <v>45000</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -831,172 +830,171 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="3:13" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="201" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="14" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -1037,7 +1035,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1048,7 +1046,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1059,7 +1057,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1070,7 +1068,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1081,10 +1079,10 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>45003</v>
       </c>
       <c r="E6" s="2"/>
@@ -1092,7 +1090,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1103,164 +1101,158 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="3:13" ht="291.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="294.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="311.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="14" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
@@ -1269,6 +1261,11 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
